--- a/assets/excel/Staff_Doctor_Details(Responses).xlsx
+++ b/assets/excel/Staff_Doctor_Details(Responses).xlsx
@@ -5668,9 +5668,9 @@
   </sheetPr>
   <dimension ref="A1:AT212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL156" sqref="A156:AL160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6223,7 +6223,7 @@
         <v>96</v>
       </c>
       <c r="S5" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>79</v>

--- a/assets/excel/Staff_Doctor_Details(Responses).xlsx
+++ b/assets/excel/Staff_Doctor_Details(Responses).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MedicalCollgeWebsite\assets\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -6538,9 +6543,9 @@
   </sheetPr>
   <dimension ref="A1:AT209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6809,7 +6814,7 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45957.836099537039</v>
       </c>
@@ -7093,7 +7098,7 @@
         <v>86</v>
       </c>
       <c r="S5" s="12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>75</v>
@@ -8269,7 +8274,7 @@
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
     </row>
-    <row r="16" spans="1:46" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45964.573194444441</v>
       </c>
@@ -10049,7 +10054,7 @@
       <c r="AS31" s="9"/>
       <c r="AT31" s="9"/>
     </row>
-    <row r="32" spans="1:46" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45964.632025462961</v>
       </c>
@@ -11165,7 +11170,7 @@
       <c r="AS41" s="9"/>
       <c r="AT41" s="9"/>
     </row>
-    <row r="42" spans="1:46" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:46" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45964.770439814813</v>
       </c>
@@ -11949,7 +11954,7 @@
       <c r="AS48" s="9"/>
       <c r="AT48" s="9"/>
     </row>
-    <row r="49" spans="1:46" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:46" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>45965.874374999999</v>
       </c>
@@ -12391,7 +12396,7 @@
       <c r="AS52" s="9"/>
       <c r="AT52" s="9"/>
     </row>
-    <row r="53" spans="1:46" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:46" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>45966.418391203704</v>
       </c>
@@ -12501,7 +12506,7 @@
       <c r="AS53" s="9"/>
       <c r="AT53" s="9"/>
     </row>
-    <row r="54" spans="1:46" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45966.540497685186</v>
       </c>

--- a/assets/excel/Staff_Doctor_Details(Responses).xlsx
+++ b/assets/excel/Staff_Doctor_Details(Responses).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MedicalCollgeWebsite\assets\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="1900">
   <si>
     <t>Name</t>
   </si>
@@ -3511,9 +3506,6 @@
   </si>
   <si>
     <t>Retired as prof of surgery from government service</t>
-  </si>
-  <si>
-    <t>Surgery</t>
   </si>
   <si>
     <t>General Surgery | oncology | endocrinology |</t>
@@ -6543,9 +6535,9 @@
   </sheetPr>
   <dimension ref="A1:AT209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z119" sqref="Z119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6707,7 +6699,7 @@
         <v>45957.692314814813</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -6814,7 +6806,7 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45957.836099537039</v>
       </c>
@@ -6931,7 +6923,7 @@
         <v>45957.892523148148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>56</v>
@@ -7042,12 +7034,12 @@
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45959.447812500002</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>31</v>
@@ -7157,7 +7149,7 @@
         <v>45959.619328703702</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -7269,7 +7261,7 @@
         <v>45959.628240740742</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>31</v>
@@ -7281,7 +7273,7 @@
         <v>28281</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>33</v>
@@ -7380,12 +7372,12 @@
       <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
     </row>
-    <row r="8" spans="1:46" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45962.704074074078</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>31</v>
@@ -7397,7 +7389,7 @@
         <v>26575</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>50</v>
@@ -7497,7 +7489,7 @@
         <v>45962.830706018518</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>31</v>
@@ -7613,7 +7605,7 @@
         <v>45962.861979166664</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -7625,7 +7617,7 @@
         <v>22846</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>33</v>
@@ -7725,7 +7717,7 @@
         <v>45963.404826388891</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>31</v>
@@ -7835,7 +7827,7 @@
         <v>45963.419293981482</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
@@ -8057,7 +8049,7 @@
         <v>45964.427928240744</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>56</v>
@@ -8389,7 +8381,7 @@
         <v>45964.575567129628</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>56</v>
@@ -8499,7 +8491,7 @@
         <v>45964.577222222222</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>56</v>
@@ -8611,7 +8603,7 @@
         <v>45964.584108796298</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>56</v>
@@ -8716,12 +8708,12 @@
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
     </row>
-    <row r="20" spans="1:46" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45964.591550925928</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -8941,7 +8933,7 @@
         <v>45964.598437499997</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>56</v>
@@ -9165,7 +9157,7 @@
         <v>45964.606122685182</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>56</v>
@@ -9277,7 +9269,7 @@
         <v>45964.608634259261</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>31</v>
@@ -9382,7 +9374,7 @@
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45964.610312500001</v>
       </c>
@@ -9499,7 +9491,7 @@
         <v>45964.613171296296</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>31</v>
@@ -9613,7 +9605,7 @@
         <v>45964.617430555554</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>31</v>
@@ -9833,7 +9825,7 @@
         <v>45964.621215277781</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>56</v>
@@ -9949,7 +9941,7 @@
         <v>45964.63071759259</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>31</v>
@@ -10059,7 +10051,7 @@
         <v>45964.632025462961</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -10131,7 +10123,7 @@
         <v>11</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AA32" s="2" t="s">
         <v>549</v>
@@ -10169,7 +10161,7 @@
         <v>45964.660057870373</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>56</v>
@@ -10241,7 +10233,7 @@
         <v>11</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AA33" s="11" t="s">
         <v>551</v>
@@ -10389,7 +10381,7 @@
         <v>45964.694976851853</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>56</v>
@@ -10733,7 +10725,7 @@
         <v>45964.749942129631</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>56</v>
@@ -10955,7 +10947,7 @@
         <v>45964.756678240738</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>31</v>
@@ -11027,7 +11019,7 @@
         <v>11</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>572</v>
@@ -11065,7 +11057,7 @@
         <v>45964.769467592596</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>31</v>
@@ -11175,7 +11167,7 @@
         <v>45964.770439814813</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>56</v>
@@ -11287,7 +11279,7 @@
         <v>45964.962500000001</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>31</v>
@@ -11397,7 +11389,7 @@
         <v>45965.415185185186</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>56</v>
@@ -11504,12 +11496,12 @@
       <c r="AS44" s="9"/>
       <c r="AT44" s="9"/>
     </row>
-    <row r="45" spans="1:46" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:46" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>45965.417916666665</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>31</v>
@@ -11623,7 +11615,7 @@
         <v>45965.447060185186</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -11735,7 +11727,7 @@
         <v>45965.450416666667</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>31</v>
@@ -11807,7 +11799,7 @@
         <v>11</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AA47" s="11" t="s">
         <v>593</v>
@@ -11849,7 +11841,7 @@
         <v>45965.512662037036</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>31</v>
@@ -11959,7 +11951,7 @@
         <v>45965.874374999999</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>56</v>
@@ -12071,7 +12063,7 @@
         <v>45966.385312500002</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>56</v>
@@ -12291,7 +12283,7 @@
         <v>45966.392407407409</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>56</v>
@@ -12506,12 +12498,12 @@
       <c r="AS53" s="9"/>
       <c r="AT53" s="9"/>
     </row>
-    <row r="54" spans="1:46" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:46" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45966.540497685186</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>56</v>
@@ -12616,12 +12608,12 @@
       <c r="AS54" s="9"/>
       <c r="AT54" s="9"/>
     </row>
-    <row r="55" spans="1:46" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:46" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>45966.62300925926</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>31</v>
@@ -12737,7 +12729,7 @@
         <v>45966.626886574071</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>31</v>
@@ -12847,7 +12839,7 @@
         <v>45966.640393518515</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>56</v>
@@ -12961,7 +12953,7 @@
         <v>45967.46361111111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>31</v>
@@ -13189,7 +13181,7 @@
         <v>45967.607523148145</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>56</v>
@@ -13301,7 +13293,7 @@
         <v>45967.610891203702</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>56</v>
@@ -13413,7 +13405,7 @@
         <v>45967.617152777777</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>56</v>
@@ -13523,7 +13515,7 @@
         <v>45967.620428240742</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>56</v>
@@ -13633,7 +13625,7 @@
         <v>45967.624560185184</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>31</v>
@@ -13745,7 +13737,7 @@
         <v>45967.633842592593</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>31</v>
@@ -13969,7 +13961,7 @@
         <v>45967.642025462963</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>56</v>
@@ -14191,7 +14183,7 @@
         <v>45967.645590277774</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>56</v>
@@ -14411,7 +14403,7 @@
         <v>45968.390150462961</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>56</v>
@@ -14521,7 +14513,7 @@
         <v>45968.459675925929</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>56</v>
@@ -14633,7 +14625,7 @@
         <v>45968.466990740744</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>31</v>
@@ -14743,7 +14735,7 @@
         <v>45968.480254629627</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>56</v>
@@ -14855,7 +14847,7 @@
         <v>45968.601412037038</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>56</v>
@@ -15077,7 +15069,7 @@
         <v>45969.473912037036</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>31</v>
@@ -15189,7 +15181,7 @@
         <v>45971.35670138889</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>56</v>
@@ -15299,7 +15291,7 @@
         <v>45972.659039351849</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>31</v>
@@ -15519,7 +15511,7 @@
         <v>45973.42355324074</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>56</v>
@@ -15631,7 +15623,7 @@
         <v>45973.453125</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>31</v>
@@ -15743,7 +15735,7 @@
         <v>45973.487337962964</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>56</v>
@@ -15965,7 +15957,7 @@
         <v>45973.499756944446</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="12">
@@ -16073,7 +16065,7 @@
         <v>45973.53</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>56</v>
@@ -16183,7 +16175,7 @@
         <v>45973.579444444447</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>56</v>
@@ -16293,7 +16285,7 @@
         <v>45973.586597222224</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>31</v>
@@ -16405,7 +16397,7 @@
         <v>45973.606805555559</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>56</v>
@@ -16515,7 +16507,7 @@
         <v>45973.627118055556</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>31</v>
@@ -16625,7 +16617,7 @@
         <v>45973.630613425928</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>31</v>
@@ -16845,7 +16837,7 @@
         <v>45973.652430555558</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>31</v>
@@ -16957,7 +16949,7 @@
         <v>45973.657650462963</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>31</v>
@@ -17069,7 +17061,7 @@
         <v>45973.66611111111</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>56</v>
@@ -17183,7 +17175,7 @@
         <v>45973.691122685188</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>56</v>
@@ -17405,7 +17397,7 @@
         <v>45974.3046875</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>31</v>
@@ -17625,7 +17617,7 @@
         <v>45974.383553240739</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>31</v>
@@ -17737,7 +17729,7 @@
         <v>45974.393182870372</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>31</v>
@@ -17849,7 +17841,7 @@
         <v>45974.406481481485</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>56</v>
@@ -17959,7 +17951,7 @@
         <v>45974.409050925926</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>31</v>
@@ -18079,7 +18071,7 @@
         <v>45974.417291666665</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>31</v>
@@ -18189,7 +18181,7 @@
         <v>45974.417326388888</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>31</v>
@@ -18301,7 +18293,7 @@
         <v>45974.423506944448</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>31</v>
@@ -18635,7 +18627,7 @@
         <v>45974.464259259257</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>56</v>
@@ -18747,7 +18739,7 @@
         <v>45974.506307870368</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>31</v>
@@ -18819,7 +18811,7 @@
         <v>11</v>
       </c>
       <c r="Z110" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AA110" s="2" t="s">
         <v>1054</v>
@@ -18857,7 +18849,7 @@
         <v>45974.516064814816</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>31</v>
@@ -18967,7 +18959,7 @@
         <v>45974.594675925924</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>56</v>
@@ -19079,7 +19071,7 @@
         <v>45974.605011574073</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>31</v>
@@ -19151,7 +19143,7 @@
         <v>11</v>
       </c>
       <c r="Z113" s="11" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AA113" s="11" t="s">
         <v>1077</v>
@@ -19191,7 +19183,7 @@
         <v>45974.619108796294</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>56</v>
@@ -19415,7 +19407,7 @@
         <v>45974.62972222222</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>31</v>
@@ -19487,7 +19479,7 @@
         <v>11</v>
       </c>
       <c r="Z116" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AA116" s="2" t="s">
         <v>1105</v>
@@ -19529,7 +19521,7 @@
         <v>45974.634756944448</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>56</v>
@@ -19601,7 +19593,7 @@
         <v>11</v>
       </c>
       <c r="Z117" s="11" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="AA117" s="11" t="s">
         <v>1115</v>
@@ -19641,7 +19633,7 @@
         <v>45974.639641203707</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>56</v>
@@ -19753,7 +19745,7 @@
         <v>45975.367986111109</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>31</v>
@@ -19825,17 +19817,17 @@
         <v>11</v>
       </c>
       <c r="Z119" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA119" s="11" t="s">
         <v>1135</v>
-      </c>
-      <c r="AA119" s="11" t="s">
-        <v>1136</v>
       </c>
       <c r="AB119" s="15"/>
       <c r="AC119" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AD119" s="11" t="s">
         <v>1137</v>
-      </c>
-      <c r="AD119" s="11" t="s">
-        <v>1138</v>
       </c>
       <c r="AE119" s="11" t="s">
         <v>48</v>
@@ -19865,7 +19857,7 @@
         <v>45975.375219907408</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>31</v>
@@ -19889,7 +19881,7 @@
         <v>35</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>499</v>
@@ -19898,10 +19890,10 @@
         <v>9245271296</v>
       </c>
       <c r="M120" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N120" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>1141</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>186</v>
@@ -19919,10 +19911,10 @@
         <v>21</v>
       </c>
       <c r="T120" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="U120" s="2" t="s">
         <v>1142</v>
-      </c>
-      <c r="U120" s="2" t="s">
-        <v>1143</v>
       </c>
       <c r="V120" s="2" t="s">
         <v>112</v>
@@ -19931,7 +19923,7 @@
         <v>44713</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Y120" s="2" t="s">
         <v>11</v>
@@ -19940,14 +19932,14 @@
         <v>467</v>
       </c>
       <c r="AA120" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AB120" s="6"/>
       <c r="AC120" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AD120" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="AD120" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="AE120" s="2" t="s">
         <v>48</v>
@@ -19977,7 +19969,7 @@
         <v>45975.401122685187</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>31</v>
@@ -19989,7 +19981,7 @@
         <v>31139</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>126</v>
@@ -20001,7 +19993,7 @@
         <v>35</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K121" s="11" t="s">
         <v>59</v>
@@ -20010,10 +20002,10 @@
         <v>9597550795</v>
       </c>
       <c r="M121" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N121" s="11" t="s">
         <v>1149</v>
-      </c>
-      <c r="N121" s="11" t="s">
-        <v>1150</v>
       </c>
       <c r="O121" s="11" t="s">
         <v>494</v>
@@ -20031,10 +20023,10 @@
         <v>8</v>
       </c>
       <c r="T121" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="U121" s="11" t="s">
         <v>1151</v>
-      </c>
-      <c r="U121" s="11" t="s">
-        <v>1152</v>
       </c>
       <c r="V121" s="11" t="s">
         <v>65</v>
@@ -20043,7 +20035,7 @@
         <v>44958</v>
       </c>
       <c r="X121" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Y121" s="11" t="s">
         <v>11</v>
@@ -20052,14 +20044,14 @@
         <v>180</v>
       </c>
       <c r="AA121" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AB121" s="15"/>
       <c r="AC121" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD121" s="11" t="s">
         <v>1155</v>
-      </c>
-      <c r="AD121" s="11" t="s">
-        <v>1156</v>
       </c>
       <c r="AE121" s="11" t="s">
         <v>48</v>
@@ -20089,7 +20081,7 @@
         <v>45975.414409722223</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>31</v>
@@ -20113,22 +20105,22 @@
         <v>35</v>
       </c>
       <c r="J122" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K122" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="L122" s="3">
         <v>9159012345</v>
       </c>
       <c r="M122" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N122" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="O122" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>1161</v>
       </c>
       <c r="P122" s="3">
         <v>620001</v>
@@ -20143,10 +20135,10 @@
         <v>11</v>
       </c>
       <c r="T122" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="U122" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="U122" s="2" t="s">
-        <v>1163</v>
       </c>
       <c r="V122" s="2" t="s">
         <v>112</v>
@@ -20155,7 +20147,7 @@
         <v>42632</v>
       </c>
       <c r="X122" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Y122" s="2" t="s">
         <v>11</v>
@@ -20164,11 +20156,11 @@
         <v>467</v>
       </c>
       <c r="AA122" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AB122" s="6"/>
       <c r="AC122" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AD122" s="6"/>
       <c r="AE122" s="2" t="s">
@@ -20199,7 +20191,7 @@
         <v>45975.419456018521</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>31</v>
@@ -20223,7 +20215,7 @@
         <v>35</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K123" s="11" t="s">
         <v>59</v>
@@ -20232,10 +20224,10 @@
         <v>9884983543</v>
       </c>
       <c r="M123" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N123" s="11" t="s">
         <v>1168</v>
-      </c>
-      <c r="N123" s="11" t="s">
-        <v>1169</v>
       </c>
       <c r="O123" s="11" t="s">
         <v>1028</v>
@@ -20253,10 +20245,10 @@
         <v>13</v>
       </c>
       <c r="T123" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="U123" s="11" t="s">
         <v>1170</v>
-      </c>
-      <c r="U123" s="11" t="s">
-        <v>1171</v>
       </c>
       <c r="V123" s="11" t="s">
         <v>65</v>
@@ -20265,7 +20257,7 @@
         <v>44260</v>
       </c>
       <c r="X123" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Y123" s="11" t="s">
         <v>11</v>
@@ -20274,11 +20266,11 @@
         <v>67</v>
       </c>
       <c r="AA123" s="11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AB123" s="15"/>
       <c r="AC123" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AD123" s="15"/>
       <c r="AE123" s="11" t="s">
@@ -20309,7 +20301,7 @@
         <v>45975.426435185182</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>31</v>
@@ -20333,7 +20325,7 @@
         <v>35</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>59</v>
@@ -20342,10 +20334,10 @@
         <v>9585536854</v>
       </c>
       <c r="M124" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N124" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>40</v>
@@ -20363,10 +20355,10 @@
         <v>2</v>
       </c>
       <c r="T124" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="U124" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="U124" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="V124" s="2" t="s">
         <v>44</v>
@@ -20375,20 +20367,20 @@
         <v>45336</v>
       </c>
       <c r="X124" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Y124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z124" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AA124" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AB124" s="6"/>
       <c r="AC124" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD124" s="6"/>
       <c r="AE124" s="2" t="s">
@@ -20419,7 +20411,7 @@
         <v>45975.438136574077</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>31</v>
@@ -20443,19 +20435,19 @@
         <v>35</v>
       </c>
       <c r="J125" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K125" s="11" t="s">
         <v>1183</v>
-      </c>
-      <c r="K125" s="11" t="s">
-        <v>1184</v>
       </c>
       <c r="L125" s="12">
         <v>9600443041</v>
       </c>
       <c r="M125" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N125" s="11" t="s">
         <v>1185</v>
-      </c>
-      <c r="N125" s="11" t="s">
-        <v>1186</v>
       </c>
       <c r="O125" s="11" t="s">
         <v>40</v>
@@ -20473,10 +20465,10 @@
         <v>2</v>
       </c>
       <c r="T125" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="U125" s="11" t="s">
         <v>1187</v>
-      </c>
-      <c r="U125" s="11" t="s">
-        <v>1188</v>
       </c>
       <c r="V125" s="11" t="s">
         <v>112</v>
@@ -20485,7 +20477,7 @@
         <v>45323</v>
       </c>
       <c r="X125" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Y125" s="11" t="s">
         <v>11</v>
@@ -20498,7 +20490,7 @@
       </c>
       <c r="AB125" s="15"/>
       <c r="AC125" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD125" s="15"/>
       <c r="AE125" s="11" t="s">
@@ -20529,7 +20521,7 @@
         <v>45975.440763888888</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>56</v>
@@ -20551,7 +20543,7 @@
         <v>35</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>59</v>
@@ -20560,10 +20552,10 @@
         <v>9597484444</v>
       </c>
       <c r="M126" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N126" s="2" t="s">
         <v>1192</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>1193</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>40</v>
@@ -20581,10 +20573,10 @@
         <v>7</v>
       </c>
       <c r="T126" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="U126" s="2" t="s">
         <v>1194</v>
-      </c>
-      <c r="U126" s="2" t="s">
-        <v>1195</v>
       </c>
       <c r="V126" s="2" t="s">
         <v>44</v>
@@ -20593,23 +20585,23 @@
         <v>43673</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Y126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z126" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AA126" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="AA126" s="2" t="s">
-        <v>1198</v>
       </c>
       <c r="AB126" s="6"/>
       <c r="AC126" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AD126" s="2" t="s">
         <v>1199</v>
-      </c>
-      <c r="AD126" s="2" t="s">
-        <v>1200</v>
       </c>
       <c r="AE126" s="2" t="s">
         <v>48</v>
@@ -20639,7 +20631,7 @@
         <v>45975.442060185182</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>31</v>
@@ -20663,7 +20655,7 @@
         <v>35</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="K127" s="11" t="s">
         <v>591</v>
@@ -20672,10 +20664,10 @@
         <v>8015627457</v>
       </c>
       <c r="M127" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N127" s="11" t="s">
         <v>1202</v>
-      </c>
-      <c r="N127" s="11" t="s">
-        <v>1203</v>
       </c>
       <c r="O127" s="11" t="s">
         <v>40</v>
@@ -20693,10 +20685,10 @@
         <v>3</v>
       </c>
       <c r="T127" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="U127" s="11" t="s">
         <v>1204</v>
-      </c>
-      <c r="U127" s="11" t="s">
-        <v>1205</v>
       </c>
       <c r="V127" s="11" t="s">
         <v>112</v>
@@ -20705,20 +20697,20 @@
         <v>45446</v>
       </c>
       <c r="X127" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Y127" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z127" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AA127" s="11" t="s">
         <v>1207</v>
-      </c>
-      <c r="AA127" s="11" t="s">
-        <v>1208</v>
       </c>
       <c r="AB127" s="15"/>
       <c r="AC127" s="11" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AD127" s="15"/>
       <c r="AE127" s="11" t="s">
@@ -20749,7 +20741,7 @@
         <v>45975.49355324074</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>56</v>
@@ -20773,7 +20765,7 @@
         <v>35</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>206</v>
@@ -20782,10 +20774,10 @@
         <v>9943907528</v>
       </c>
       <c r="M128" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N128" s="2" t="s">
         <v>1210</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>1211</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>40</v>
@@ -20806,7 +20798,7 @@
         <v>9943907528</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V128" s="2" t="s">
         <v>112</v>
@@ -20815,7 +20807,7 @@
         <v>42639</v>
       </c>
       <c r="X128" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Y128" s="2" t="s">
         <v>11</v>
@@ -20824,10 +20816,10 @@
         <v>467</v>
       </c>
       <c r="AA128" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AB128" s="2" t="s">
         <v>1214</v>
-      </c>
-      <c r="AB128" s="2" t="s">
-        <v>1215</v>
       </c>
       <c r="AC128" s="2" t="s">
         <v>99</v>
@@ -20849,13 +20841,13 @@
       <c r="AJ128" s="6"/>
       <c r="AK128" s="6"/>
       <c r="AL128" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AM128" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AN128" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AO128" s="9"/>
       <c r="AP128" s="9"/>
@@ -20869,7 +20861,7 @@
         <v>45975.493923611109</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>56</v>
@@ -20893,7 +20885,7 @@
         <v>35</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K129" s="11" t="s">
         <v>59</v>
@@ -20902,19 +20894,19 @@
         <v>9443158699</v>
       </c>
       <c r="M129" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N129" s="11" t="s">
         <v>1218</v>
       </c>
-      <c r="N129" s="11" t="s">
+      <c r="O129" s="11" t="s">
         <v>1219</v>
-      </c>
-      <c r="O129" s="11" t="s">
-        <v>1220</v>
       </c>
       <c r="P129" s="12">
         <v>627011</v>
       </c>
       <c r="Q129" s="24" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="R129" s="24" t="s">
         <v>86</v>
@@ -20923,10 +20915,10 @@
         <v>32</v>
       </c>
       <c r="T129" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="U129" s="11" t="s">
         <v>1222</v>
-      </c>
-      <c r="U129" s="11" t="s">
-        <v>1223</v>
       </c>
       <c r="V129" s="11" t="s">
         <v>65</v>
@@ -20935,7 +20927,7 @@
         <v>45505</v>
       </c>
       <c r="X129" s="11" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Y129" s="11" t="s">
         <v>11</v>
@@ -20948,10 +20940,10 @@
       </c>
       <c r="AB129" s="15"/>
       <c r="AC129" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AD129" s="11" t="s">
         <v>1224</v>
-      </c>
-      <c r="AD129" s="11" t="s">
-        <v>1225</v>
       </c>
       <c r="AE129" s="11" t="s">
         <v>48</v>
@@ -20981,7 +20973,7 @@
         <v>45975.54855324074</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>56</v>
@@ -21005,7 +20997,7 @@
         <v>35</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>59</v>
@@ -21014,10 +21006,10 @@
         <v>9884383428</v>
       </c>
       <c r="M130" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="N130" s="2" t="s">
         <v>1227</v>
-      </c>
-      <c r="N130" s="2" t="s">
-        <v>1228</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>40</v>
@@ -21035,10 +21027,10 @@
         <v>12</v>
       </c>
       <c r="T130" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="U130" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="U130" s="2" t="s">
-        <v>1230</v>
       </c>
       <c r="V130" s="2" t="s">
         <v>44</v>
@@ -21047,20 +21039,20 @@
         <v>41306</v>
       </c>
       <c r="X130" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Y130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z130" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AA130" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="AA130" s="2" t="s">
-        <v>1233</v>
       </c>
       <c r="AB130" s="6"/>
       <c r="AC130" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AD130" s="6"/>
       <c r="AE130" s="2" t="s">
@@ -21091,7 +21083,7 @@
         <v>45975.615324074075</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>56</v>
@@ -21103,7 +21095,7 @@
         <v>28749</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>50</v>
@@ -21115,19 +21107,19 @@
         <v>35</v>
       </c>
       <c r="J131" s="14" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K131" s="11" t="s">
         <v>1234</v>
-      </c>
-      <c r="K131" s="11" t="s">
-        <v>1235</v>
       </c>
       <c r="L131" s="12">
         <v>9630766309</v>
       </c>
       <c r="M131" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N131" s="11" t="s">
         <v>1236</v>
-      </c>
-      <c r="N131" s="11" t="s">
-        <v>1237</v>
       </c>
       <c r="O131" s="11" t="s">
         <v>62</v>
@@ -21145,10 +21137,10 @@
         <v>12</v>
       </c>
       <c r="T131" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="U131" s="11" t="s">
         <v>1238</v>
-      </c>
-      <c r="U131" s="11" t="s">
-        <v>1239</v>
       </c>
       <c r="V131" s="11" t="s">
         <v>44</v>
@@ -21157,23 +21149,23 @@
         <v>45668</v>
       </c>
       <c r="X131" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Y131" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z131" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AA131" s="11" t="s">
         <v>1241</v>
-      </c>
-      <c r="AA131" s="11" t="s">
-        <v>1242</v>
       </c>
       <c r="AB131" s="15"/>
       <c r="AC131" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AD131" s="11" t="s">
         <v>1243</v>
-      </c>
-      <c r="AD131" s="11" t="s">
-        <v>1244</v>
       </c>
       <c r="AE131" s="11" t="s">
         <v>48</v>
@@ -21203,7 +21195,7 @@
         <v>45975.635601851849</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>56</v>
@@ -21227,19 +21219,19 @@
         <v>35</v>
       </c>
       <c r="J132" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K132" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>1246</v>
       </c>
       <c r="L132" s="3">
         <v>9742383083</v>
       </c>
       <c r="M132" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N132" s="2" t="s">
         <v>1247</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>1248</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>85</v>
@@ -21257,10 +21249,10 @@
         <v>15</v>
       </c>
       <c r="T132" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="U132" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="U132" s="2" t="s">
-        <v>1250</v>
       </c>
       <c r="V132" s="2" t="s">
         <v>44</v>
@@ -21269,7 +21261,7 @@
         <v>43439</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Y132" s="2" t="s">
         <v>11</v>
@@ -21278,13 +21270,13 @@
         <v>467</v>
       </c>
       <c r="AA132" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AB132" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AC132" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="AB132" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="AC132" s="2" t="s">
-        <v>1253</v>
       </c>
       <c r="AD132" s="6"/>
       <c r="AE132" s="2" t="s">
@@ -21301,13 +21293,13 @@
       <c r="AJ132" s="6"/>
       <c r="AK132" s="6"/>
       <c r="AL132" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AM132" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="AM132" s="5" t="s">
-        <v>1255</v>
-      </c>
       <c r="AN132" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AO132" s="9"/>
       <c r="AP132" s="9"/>
@@ -21321,7 +21313,7 @@
         <v>45975.643194444441</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>31</v>
@@ -21345,7 +21337,7 @@
         <v>35</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K133" s="11" t="s">
         <v>59</v>
@@ -21354,10 +21346,10 @@
         <v>9786146613</v>
       </c>
       <c r="M133" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N133" s="11" t="s">
         <v>1257</v>
-      </c>
-      <c r="N133" s="11" t="s">
-        <v>1258</v>
       </c>
       <c r="O133" s="11" t="s">
         <v>40</v>
@@ -21375,10 +21367,10 @@
         <v>18</v>
       </c>
       <c r="T133" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="U133" s="11" t="s">
         <v>1259</v>
-      </c>
-      <c r="U133" s="11" t="s">
-        <v>1260</v>
       </c>
       <c r="V133" s="11" t="s">
         <v>65</v>
@@ -21387,7 +21379,7 @@
         <v>41771</v>
       </c>
       <c r="X133" s="11" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Y133" s="11" t="s">
         <v>11</v>
@@ -21396,14 +21388,14 @@
         <v>298</v>
       </c>
       <c r="AA133" s="11" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="AB133" s="15"/>
       <c r="AC133" s="11" t="s">
         <v>55</v>
       </c>
       <c r="AD133" s="11" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AE133" s="11" t="s">
         <v>48</v>
@@ -21433,7 +21425,7 @@
         <v>45975.694756944446</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>31</v>
@@ -21457,7 +21449,7 @@
         <v>35</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>59</v>
@@ -21466,10 +21458,10 @@
         <v>9080800019</v>
       </c>
       <c r="M134" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>1265</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>1266</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>186</v>
@@ -21490,7 +21482,7 @@
         <v>9080800019</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="V134" s="2" t="s">
         <v>65</v>
@@ -21508,11 +21500,11 @@
         <v>298</v>
       </c>
       <c r="AA134" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AB134" s="6"/>
       <c r="AC134" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AD134" s="6"/>
       <c r="AE134" s="2" t="s">
@@ -21543,7 +21535,7 @@
         <v>45975.972280092596</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>31</v>
@@ -21567,7 +21559,7 @@
         <v>35</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="K135" s="11" t="s">
         <v>59</v>
@@ -21576,10 +21568,10 @@
         <v>9994264019</v>
       </c>
       <c r="M135" s="11" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N135" s="11" t="s">
         <v>1271</v>
-      </c>
-      <c r="N135" s="11" t="s">
-        <v>1272</v>
       </c>
       <c r="O135" s="11" t="s">
         <v>40</v>
@@ -21597,10 +21589,10 @@
         <v>25</v>
       </c>
       <c r="T135" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U135" s="11" t="s">
         <v>1273</v>
-      </c>
-      <c r="U135" s="11" t="s">
-        <v>1274</v>
       </c>
       <c r="V135" s="11" t="s">
         <v>65</v>
@@ -21609,7 +21601,7 @@
         <v>44356</v>
       </c>
       <c r="X135" s="11" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Y135" s="11" t="s">
         <v>11</v>
@@ -21618,14 +21610,14 @@
         <v>67</v>
       </c>
       <c r="AA135" s="11" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="AB135" s="15"/>
       <c r="AC135" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AD135" s="11" t="s">
         <v>1277</v>
-      </c>
-      <c r="AD135" s="11" t="s">
-        <v>1278</v>
       </c>
       <c r="AE135" s="11" t="s">
         <v>48</v>
@@ -21655,7 +21647,7 @@
         <v>45976.37872685185</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>31</v>
@@ -21679,7 +21671,7 @@
         <v>35</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>59</v>
@@ -21688,13 +21680,13 @@
         <v>8870180733</v>
       </c>
       <c r="M136" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="N136" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>1282</v>
       </c>
       <c r="P136" s="3">
         <v>620025</v>
@@ -21709,10 +21701,10 @@
         <v>2</v>
       </c>
       <c r="T136" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="U136" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="U136" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="V136" s="2" t="s">
         <v>112</v>
@@ -21721,7 +21713,7 @@
         <v>45691</v>
       </c>
       <c r="X136" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Y136" s="2" t="s">
         <v>11</v>
@@ -21730,14 +21722,14 @@
         <v>467</v>
       </c>
       <c r="AA136" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AB136" s="6"/>
       <c r="AC136" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AD136" s="2" t="s">
         <v>1287</v>
-      </c>
-      <c r="AD136" s="2" t="s">
-        <v>1288</v>
       </c>
       <c r="AE136" s="2" t="s">
         <v>48</v>
@@ -21767,7 +21759,7 @@
         <v>45976.633912037039</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>31</v>
@@ -21791,7 +21783,7 @@
         <v>35</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K137" s="11" t="s">
         <v>59</v>
@@ -21800,10 +21792,10 @@
         <v>9840714789</v>
       </c>
       <c r="M137" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N137" s="11" t="s">
         <v>1290</v>
-      </c>
-      <c r="N137" s="11" t="s">
-        <v>1291</v>
       </c>
       <c r="O137" s="11" t="s">
         <v>294</v>
@@ -21821,10 +21813,10 @@
         <v>7</v>
       </c>
       <c r="T137" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="U137" s="11" t="s">
         <v>1292</v>
-      </c>
-      <c r="U137" s="11" t="s">
-        <v>1293</v>
       </c>
       <c r="V137" s="11" t="s">
         <v>44</v>
@@ -21833,7 +21825,7 @@
         <v>44228</v>
       </c>
       <c r="X137" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Y137" s="11" t="s">
         <v>11</v>
@@ -21842,7 +21834,7 @@
         <v>920</v>
       </c>
       <c r="AA137" s="11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AB137" s="15"/>
       <c r="AC137" s="11" t="s">
@@ -21879,7 +21871,7 @@
         <v>45978.611875000002</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>31</v>
@@ -21903,7 +21895,7 @@
         <v>35</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>471</v>
@@ -21912,10 +21904,10 @@
         <v>7010260430</v>
       </c>
       <c r="M138" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N138" s="2" t="s">
         <v>1414</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>1415</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>40</v>
@@ -21933,10 +21925,10 @@
         <v>2</v>
       </c>
       <c r="T138" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="U138" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="U138" s="2" t="s">
-        <v>1417</v>
       </c>
       <c r="V138" s="2" t="s">
         <v>112</v>
@@ -21945,7 +21937,7 @@
         <v>45810</v>
       </c>
       <c r="X138" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="Y138" s="2" t="s">
         <v>11</v>
@@ -21954,14 +21946,14 @@
         <v>467</v>
       </c>
       <c r="AA138" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="AB138" s="6"/>
       <c r="AC138" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AD138" s="2" t="s">
         <v>1420</v>
-      </c>
-      <c r="AD138" s="2" t="s">
-        <v>1421</v>
       </c>
       <c r="AE138" s="2" t="s">
         <v>48</v>
@@ -21991,7 +21983,7 @@
         <v>45978.693738425929</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>31</v>
@@ -22015,7 +22007,7 @@
         <v>35</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="K139" s="11" t="s">
         <v>164</v>
@@ -22024,13 +22016,13 @@
         <v>9952346339</v>
       </c>
       <c r="M139" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N139" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="N139" s="11" t="s">
+      <c r="O139" s="11" t="s">
         <v>1425</v>
-      </c>
-      <c r="O139" s="11" t="s">
-        <v>1426</v>
       </c>
       <c r="P139" s="12">
         <v>621211</v>
@@ -22045,10 +22037,10 @@
         <v>1</v>
       </c>
       <c r="T139" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="U139" s="11" t="s">
         <v>1427</v>
-      </c>
-      <c r="U139" s="11" t="s">
-        <v>1428</v>
       </c>
       <c r="V139" s="11" t="s">
         <v>112</v>
@@ -22066,7 +22058,7 @@
         <v>519</v>
       </c>
       <c r="AA139" s="11" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="AB139" s="15"/>
       <c r="AC139" s="11" t="s">
@@ -22101,7 +22093,7 @@
         <v>45979.365844907406</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>56</v>
@@ -22125,7 +22117,7 @@
         <v>35</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>59</v>
@@ -22134,19 +22126,19 @@
         <v>7708773885</v>
       </c>
       <c r="M140" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="O140" s="2" t="s">
         <v>1433</v>
-      </c>
-      <c r="O140" s="2" t="s">
-        <v>1434</v>
       </c>
       <c r="P140" s="3">
         <v>641021</v>
       </c>
       <c r="Q140" s="23" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="R140" s="23" t="s">
         <v>86</v>
@@ -22155,7 +22147,7 @@
         <v>1</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="U140" s="2" t="s">
         <v>473</v>
@@ -22167,7 +22159,7 @@
         <v>45810</v>
       </c>
       <c r="X140" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="Y140" s="2" t="s">
         <v>11</v>
@@ -22176,11 +22168,11 @@
         <v>467</v>
       </c>
       <c r="AA140" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="AB140" s="6"/>
       <c r="AC140" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="AD140" s="6"/>
       <c r="AE140" s="2" t="s">
@@ -22211,7 +22203,7 @@
         <v>45979.369976851849</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>31</v>
@@ -22235,19 +22227,19 @@
         <v>35</v>
       </c>
       <c r="J141" s="14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K141" s="11" t="s">
         <v>1440</v>
-      </c>
-      <c r="K141" s="11" t="s">
-        <v>1441</v>
       </c>
       <c r="L141" s="12">
         <v>9739277039</v>
       </c>
       <c r="M141" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="N141" s="11" t="s">
         <v>1442</v>
-      </c>
-      <c r="N141" s="11" t="s">
-        <v>1443</v>
       </c>
       <c r="O141" s="11" t="s">
         <v>40</v>
@@ -22265,10 +22257,10 @@
         <v>4</v>
       </c>
       <c r="T141" s="11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="U141" s="11" t="s">
         <v>1444</v>
-      </c>
-      <c r="U141" s="11" t="s">
-        <v>1445</v>
       </c>
       <c r="V141" s="11" t="s">
         <v>44</v>
@@ -22277,7 +22269,7 @@
         <v>44470</v>
       </c>
       <c r="X141" s="11" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Y141" s="11" t="s">
         <v>11</v>
@@ -22286,7 +22278,7 @@
         <v>633</v>
       </c>
       <c r="AA141" s="11" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="AB141" s="15"/>
       <c r="AC141" s="11" t="s">
@@ -22321,7 +22313,7 @@
         <v>45979.371990740743</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>31</v>
@@ -22345,7 +22337,7 @@
         <v>35</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>206</v>
@@ -22354,10 +22346,10 @@
         <v>8189827034</v>
       </c>
       <c r="M142" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N142" s="2" t="s">
         <v>1450</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>1451</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>40</v>
@@ -22375,10 +22367,10 @@
         <v>3</v>
       </c>
       <c r="T142" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="U142" s="2" t="s">
         <v>1452</v>
-      </c>
-      <c r="U142" s="2" t="s">
-        <v>1453</v>
       </c>
       <c r="V142" s="2" t="s">
         <v>44</v>
@@ -22387,7 +22379,7 @@
         <v>45212</v>
       </c>
       <c r="X142" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="Y142" s="2" t="s">
         <v>219</v>
@@ -22396,14 +22388,14 @@
         <v>467</v>
       </c>
       <c r="AA142" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="AB142" s="6"/>
       <c r="AC142" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AD142" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="AD142" s="2" t="s">
-        <v>1457</v>
       </c>
       <c r="AE142" s="2" t="s">
         <v>48</v>
@@ -22433,7 +22425,7 @@
         <v>45979.479664351849</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>31</v>
@@ -22457,7 +22449,7 @@
         <v>35</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K143" s="11" t="s">
         <v>59</v>
@@ -22466,13 +22458,13 @@
         <v>9894065844</v>
       </c>
       <c r="M143" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N143" s="11" t="s">
         <v>1460</v>
       </c>
-      <c r="N143" s="11" t="s">
+      <c r="O143" s="11" t="s">
         <v>1461</v>
-      </c>
-      <c r="O143" s="11" t="s">
-        <v>1462</v>
       </c>
       <c r="P143" s="12">
         <v>639001</v>
@@ -22487,7 +22479,7 @@
         <v>7</v>
       </c>
       <c r="T143" s="11" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="U143" s="11" t="s">
         <v>640</v>
@@ -22512,7 +22504,7 @@
       </c>
       <c r="AB143" s="15"/>
       <c r="AC143" s="11" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AD143" s="11" t="s">
         <v>83</v>
@@ -22545,7 +22537,7 @@
         <v>45979.498854166668</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>31</v>
@@ -22557,7 +22549,7 @@
         <v>28285</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>107</v>
@@ -22569,7 +22561,7 @@
         <v>35</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>59</v>
@@ -22578,10 +22570,10 @@
         <v>9443164535</v>
       </c>
       <c r="M144" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="N144" s="2" t="s">
         <v>1468</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>1469</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>186</v>
@@ -22599,10 +22591,10 @@
         <v>17</v>
       </c>
       <c r="T144" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="U144" s="2" t="s">
         <v>1470</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>1471</v>
       </c>
       <c r="V144" s="2" t="s">
         <v>44</v>
@@ -22611,23 +22603,23 @@
         <v>39721</v>
       </c>
       <c r="X144" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="Y144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z144" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AA144" s="2" t="s">
         <v>1473</v>
-      </c>
-      <c r="AA144" s="2" t="s">
-        <v>1474</v>
       </c>
       <c r="AB144" s="6"/>
       <c r="AC144" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AD144" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="AD144" s="2" t="s">
-        <v>1476</v>
       </c>
       <c r="AE144" s="2" t="s">
         <v>48</v>
@@ -22657,7 +22649,7 @@
         <v>45979.554236111115</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>56</v>
@@ -22681,7 +22673,7 @@
         <v>35</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="K145" s="11" t="s">
         <v>59</v>
@@ -22690,10 +22682,10 @@
         <v>9994667489</v>
       </c>
       <c r="M145" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N145" s="11" t="s">
         <v>1479</v>
-      </c>
-      <c r="N145" s="11" t="s">
-        <v>1480</v>
       </c>
       <c r="O145" s="11" t="s">
         <v>40</v>
@@ -22711,10 +22703,10 @@
         <v>7</v>
       </c>
       <c r="T145" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="U145" s="11" t="s">
         <v>1481</v>
-      </c>
-      <c r="U145" s="11" t="s">
-        <v>1482</v>
       </c>
       <c r="V145" s="11" t="s">
         <v>44</v>
@@ -22723,20 +22715,20 @@
         <v>43194</v>
       </c>
       <c r="X145" s="11" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="Y145" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z145" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AA145" s="11" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AB145" s="15"/>
       <c r="AC145" s="11" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AD145" s="15"/>
       <c r="AE145" s="11" t="s">
@@ -22767,7 +22759,7 @@
         <v>45980.316782407404</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>56</v>
@@ -22791,7 +22783,7 @@
         <v>35</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>59</v>
@@ -22800,10 +22792,10 @@
         <v>9500820460</v>
       </c>
       <c r="M146" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="N146" s="2" t="s">
         <v>1488</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>1489</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>85</v>
@@ -22821,10 +22813,10 @@
         <v>3</v>
       </c>
       <c r="T146" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="U146" s="2" t="s">
         <v>1490</v>
-      </c>
-      <c r="U146" s="2" t="s">
-        <v>1491</v>
       </c>
       <c r="V146" s="2" t="s">
         <v>112</v>
@@ -22833,7 +22825,7 @@
         <v>45964</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Y146" s="2" t="s">
         <v>11</v>
@@ -22842,11 +22834,11 @@
         <v>852</v>
       </c>
       <c r="AA146" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="AB146" s="6"/>
       <c r="AC146" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AD146" s="6"/>
       <c r="AE146" s="2" t="s">
@@ -22877,7 +22869,7 @@
         <v>45980.370381944442</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>31</v>
@@ -22899,19 +22891,19 @@
         <v>35</v>
       </c>
       <c r="J147" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K147" s="11" t="s">
         <v>1496</v>
-      </c>
-      <c r="K147" s="11" t="s">
-        <v>1497</v>
       </c>
       <c r="L147" s="12">
         <v>7598346561</v>
       </c>
       <c r="M147" s="11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="N147" s="11" t="s">
         <v>1498</v>
-      </c>
-      <c r="N147" s="11" t="s">
-        <v>1499</v>
       </c>
       <c r="O147" s="11" t="s">
         <v>40</v>
@@ -22929,10 +22921,10 @@
         <v>2</v>
       </c>
       <c r="T147" s="11" t="s">
+        <v>1499</v>
+      </c>
+      <c r="U147" s="11" t="s">
         <v>1500</v>
-      </c>
-      <c r="U147" s="11" t="s">
-        <v>1501</v>
       </c>
       <c r="V147" s="11" t="s">
         <v>112</v>
@@ -22941,7 +22933,7 @@
         <v>45397</v>
       </c>
       <c r="X147" s="11" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="Y147" s="11" t="s">
         <v>11</v>
@@ -22954,7 +22946,7 @@
       </c>
       <c r="AB147" s="15"/>
       <c r="AC147" s="11" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="AD147" s="15"/>
       <c r="AE147" s="11" t="s">
@@ -22985,7 +22977,7 @@
         <v>45980.380636574075</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>31</v>
@@ -23009,7 +23001,7 @@
         <v>35</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>206</v>
@@ -23018,10 +23010,10 @@
         <v>9894147545</v>
       </c>
       <c r="M148" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N148" s="2" t="s">
         <v>1506</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>1507</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>85</v>
@@ -23039,10 +23031,10 @@
         <v>10</v>
       </c>
       <c r="T148" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U148" s="2" t="s">
         <v>1508</v>
-      </c>
-      <c r="U148" s="2" t="s">
-        <v>1509</v>
       </c>
       <c r="V148" s="2" t="s">
         <v>44</v>
@@ -23051,7 +23043,7 @@
         <v>42219</v>
       </c>
       <c r="X148" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="Y148" s="2" t="s">
         <v>11</v>
@@ -23060,11 +23052,11 @@
         <v>633</v>
       </c>
       <c r="AA148" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AB148" s="6"/>
       <c r="AC148" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AD148" s="6"/>
       <c r="AE148" s="2" t="s">
@@ -23095,7 +23087,7 @@
         <v>45980.428622685184</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>31</v>
@@ -23119,7 +23111,7 @@
         <v>35</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="K149" s="11" t="s">
         <v>59</v>
@@ -23128,10 +23120,10 @@
         <v>7418975994</v>
       </c>
       <c r="M149" s="11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N149" s="11" t="s">
         <v>1515</v>
-      </c>
-      <c r="N149" s="11" t="s">
-        <v>1516</v>
       </c>
       <c r="O149" s="11" t="s">
         <v>963</v>
@@ -23149,10 +23141,10 @@
         <v>2</v>
       </c>
       <c r="T149" s="11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="U149" s="11" t="s">
         <v>1517</v>
-      </c>
-      <c r="U149" s="11" t="s">
-        <v>1518</v>
       </c>
       <c r="V149" s="11" t="s">
         <v>112</v>
@@ -23161,7 +23153,7 @@
         <v>45432</v>
       </c>
       <c r="X149" s="11" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="Y149" s="11" t="s">
         <v>11</v>
@@ -23170,11 +23162,11 @@
         <v>467</v>
       </c>
       <c r="AA149" s="11" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="AB149" s="15"/>
       <c r="AC149" s="11" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="AD149" s="15"/>
       <c r="AE149" s="11" t="s">
@@ -23205,7 +23197,7 @@
         <v>45980.460347222222</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>56</v>
@@ -23229,7 +23221,7 @@
         <v>35</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>59</v>
@@ -23238,10 +23230,10 @@
         <v>9894593245</v>
       </c>
       <c r="M150" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="N150" s="2" t="s">
         <v>1524</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>1525</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>40</v>
@@ -23259,10 +23251,10 @@
         <v>2</v>
       </c>
       <c r="T150" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="U150" s="2" t="s">
         <v>1526</v>
-      </c>
-      <c r="U150" s="2" t="s">
-        <v>1527</v>
       </c>
       <c r="V150" s="2" t="s">
         <v>112</v>
@@ -23271,7 +23263,7 @@
         <v>45261</v>
       </c>
       <c r="X150" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="Y150" s="2" t="s">
         <v>11</v>
@@ -23280,7 +23272,7 @@
         <v>519</v>
       </c>
       <c r="AA150" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AB150" s="6"/>
       <c r="AC150" s="2" t="s">
@@ -23315,7 +23307,7 @@
         <v>45980.519803240742</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>31</v>
@@ -23339,28 +23331,28 @@
         <v>35</v>
       </c>
       <c r="J151" s="14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K151" s="11" t="s">
         <v>1531</v>
-      </c>
-      <c r="K151" s="11" t="s">
-        <v>1532</v>
       </c>
       <c r="L151" s="12">
         <v>9944919976</v>
       </c>
       <c r="M151" s="11" t="s">
+        <v>1532</v>
+      </c>
+      <c r="N151" s="11" t="s">
         <v>1533</v>
       </c>
-      <c r="N151" s="11" t="s">
+      <c r="O151" s="11" t="s">
         <v>1534</v>
-      </c>
-      <c r="O151" s="11" t="s">
-        <v>1535</v>
       </c>
       <c r="P151" s="12">
         <v>635119</v>
       </c>
       <c r="Q151" s="24" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="R151" s="24" t="s">
         <v>41</v>
@@ -23381,7 +23373,7 @@
         <v>45980</v>
       </c>
       <c r="X151" s="11" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="Y151" s="11" t="s">
         <v>11</v>
@@ -23390,14 +23382,14 @@
         <v>298</v>
       </c>
       <c r="AA151" s="11" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="AB151" s="15"/>
       <c r="AC151" s="11" t="s">
         <v>1003</v>
       </c>
       <c r="AD151" s="11" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="AE151" s="11" t="s">
         <v>48</v>
@@ -23427,7 +23419,7 @@
         <v>45980.595300925925</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>56</v>
@@ -23451,7 +23443,7 @@
         <v>35</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>59</v>
@@ -23460,10 +23452,10 @@
         <v>8668091952</v>
       </c>
       <c r="M152" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N152" s="2" t="s">
         <v>1542</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>1543</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>40</v>
@@ -23481,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="U152" s="2" t="s">
         <v>640</v>
@@ -23506,7 +23498,7 @@
       </c>
       <c r="AB152" s="6"/>
       <c r="AC152" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AD152" s="2" t="s">
         <v>83</v>
@@ -23539,7 +23531,7 @@
         <v>45981.411817129629</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>56</v>
@@ -23563,22 +23555,22 @@
         <v>35</v>
       </c>
       <c r="J153" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K153" s="11" t="s">
         <v>1547</v>
-      </c>
-      <c r="K153" s="11" t="s">
-        <v>1548</v>
       </c>
       <c r="L153" s="12">
         <v>9994280118</v>
       </c>
       <c r="M153" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N153" s="11" t="s">
         <v>1549</v>
       </c>
-      <c r="N153" s="11" t="s">
+      <c r="O153" s="11" t="s">
         <v>1550</v>
-      </c>
-      <c r="O153" s="11" t="s">
-        <v>1551</v>
       </c>
       <c r="P153" s="12">
         <v>621801</v>
@@ -23593,10 +23585,10 @@
         <v>414</v>
       </c>
       <c r="T153" s="11" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="U153" s="11" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="V153" s="11" t="s">
         <v>44</v>
@@ -23605,7 +23597,7 @@
         <v>45751</v>
       </c>
       <c r="X153" s="11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Y153" s="11" t="s">
         <v>11</v>
@@ -23614,11 +23606,11 @@
         <v>633</v>
       </c>
       <c r="AA153" s="11" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="AB153" s="15"/>
       <c r="AC153" s="11" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="AD153" s="15"/>
       <c r="AE153" s="11" t="s">
@@ -23649,7 +23641,7 @@
         <v>45981.414537037039</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>31</v>
@@ -23673,7 +23665,7 @@
         <v>35</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>206</v>
@@ -23682,13 +23674,13 @@
         <v>8727849777</v>
       </c>
       <c r="M154" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="N154" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="N154" s="2" t="s">
+      <c r="O154" s="2" t="s">
         <v>1559</v>
-      </c>
-      <c r="O154" s="2" t="s">
-        <v>1560</v>
       </c>
       <c r="P154" s="3">
         <v>620006</v>
@@ -23703,10 +23695,10 @@
         <v>9</v>
       </c>
       <c r="T154" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="U154" s="2" t="s">
         <v>1561</v>
-      </c>
-      <c r="U154" s="2" t="s">
-        <v>1562</v>
       </c>
       <c r="V154" s="2" t="s">
         <v>44</v>
@@ -23715,23 +23707,23 @@
         <v>43958</v>
       </c>
       <c r="X154" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="Y154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z154" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AA154" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AB154" s="6"/>
       <c r="AC154" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AD154" s="2" t="s">
         <v>1565</v>
-      </c>
-      <c r="AD154" s="2" t="s">
-        <v>1566</v>
       </c>
       <c r="AE154" s="2" t="s">
         <v>48</v>
@@ -23761,7 +23753,7 @@
         <v>45981.63208333333</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>56</v>
@@ -23785,19 +23777,19 @@
         <v>35</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L155" s="12">
         <v>8110860509</v>
       </c>
       <c r="M155" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N155" s="11" t="s">
         <v>1569</v>
-      </c>
-      <c r="N155" s="11" t="s">
-        <v>1570</v>
       </c>
       <c r="O155" s="11" t="s">
         <v>40</v>
@@ -23815,10 +23807,10 @@
         <v>1</v>
       </c>
       <c r="T155" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="U155" s="11" t="s">
         <v>1571</v>
-      </c>
-      <c r="U155" s="11" t="s">
-        <v>1572</v>
       </c>
       <c r="V155" s="11" t="s">
         <v>44</v>
@@ -23827,22 +23819,22 @@
         <v>45748</v>
       </c>
       <c r="X155" s="11" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="Y155" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z155" s="11" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="AA155" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AB155" s="14" t="s">
         <v>1574</v>
       </c>
-      <c r="AB155" s="14" t="s">
+      <c r="AC155" s="11" t="s">
         <v>1575</v>
-      </c>
-      <c r="AC155" s="11" t="s">
-        <v>1576</v>
       </c>
       <c r="AD155" s="15"/>
       <c r="AE155" s="11" t="s">
@@ -23859,7 +23851,7 @@
       <c r="AJ155" s="15"/>
       <c r="AK155" s="15"/>
       <c r="AL155" s="14" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="AM155" s="15"/>
       <c r="AN155" s="17"/>
@@ -23875,7 +23867,7 @@
         <v>45981.752314814818</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>31</v>
@@ -23899,19 +23891,19 @@
         <v>35</v>
       </c>
       <c r="J156" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K156" s="2" t="s">
         <v>1578</v>
-      </c>
-      <c r="K156" s="2" t="s">
-        <v>1579</v>
       </c>
       <c r="L156" s="3">
         <v>8144380594</v>
       </c>
       <c r="M156" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N156" s="2" t="s">
         <v>1580</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>1581</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>40</v>
@@ -23920,7 +23912,7 @@
         <v>621105</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="R156" s="2" t="s">
         <v>86</v>
@@ -23929,10 +23921,10 @@
         <v>3</v>
       </c>
       <c r="T156" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="U156" s="2" t="s">
         <v>1582</v>
-      </c>
-      <c r="U156" s="2" t="s">
-        <v>1583</v>
       </c>
       <c r="V156" s="2" t="s">
         <v>112</v>
@@ -23941,7 +23933,7 @@
         <v>44685</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="Y156" s="2" t="s">
         <v>11</v>
@@ -23950,11 +23942,11 @@
         <v>89</v>
       </c>
       <c r="AA156" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="AB156" s="6"/>
       <c r="AC156" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="AD156" s="6"/>
       <c r="AE156" s="2" t="s">
@@ -23985,7 +23977,7 @@
         <v>45981.991898148146</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>56</v>
@@ -24009,7 +24001,7 @@
         <v>35</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K157" s="11" t="s">
         <v>59</v>
@@ -24018,10 +24010,10 @@
         <v>9597681808</v>
       </c>
       <c r="M157" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N157" s="11" t="s">
         <v>1589</v>
-      </c>
-      <c r="N157" s="11" t="s">
-        <v>1590</v>
       </c>
       <c r="O157" s="11" t="s">
         <v>85</v>
@@ -24036,13 +24028,13 @@
         <v>86</v>
       </c>
       <c r="S157" s="11" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="T157" s="12">
         <v>9597681808</v>
       </c>
       <c r="U157" s="11" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="V157" s="11" t="s">
         <v>44</v>
@@ -24060,11 +24052,11 @@
         <v>633</v>
       </c>
       <c r="AA157" s="11" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AB157" s="15"/>
       <c r="AC157" s="11" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="AD157" s="15"/>
       <c r="AE157" s="11" t="s">
@@ -24095,7 +24087,7 @@
         <v>45982.393425925926</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>56</v>
@@ -24107,7 +24099,7 @@
         <v>24995</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>107</v>
@@ -24119,7 +24111,7 @@
         <v>35</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>59</v>
@@ -24128,10 +24120,10 @@
         <v>9003056068</v>
       </c>
       <c r="M158" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="N158" s="2" t="s">
-        <v>1598</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>62</v>
@@ -24152,7 +24144,7 @@
         <v>9003056068</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V158" s="2" t="s">
         <v>65</v>
@@ -24161,20 +24153,20 @@
         <v>44228</v>
       </c>
       <c r="X158" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Y158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z158" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AA158" s="2" t="s">
         <v>1601</v>
-      </c>
-      <c r="AA158" s="2" t="s">
-        <v>1602</v>
       </c>
       <c r="AB158" s="6"/>
       <c r="AC158" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="AD158" s="6"/>
       <c r="AE158" s="2" t="s">
@@ -24205,7 +24197,7 @@
         <v>45982.411249999997</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>56</v>
@@ -24229,19 +24221,19 @@
         <v>35</v>
       </c>
       <c r="J159" s="14" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K159" s="11" t="s">
         <v>1605</v>
-      </c>
-      <c r="K159" s="11" t="s">
-        <v>1606</v>
       </c>
       <c r="L159" s="12">
         <v>9445972712</v>
       </c>
       <c r="M159" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N159" s="11" t="s">
         <v>1607</v>
-      </c>
-      <c r="N159" s="11" t="s">
-        <v>1608</v>
       </c>
       <c r="O159" s="11" t="s">
         <v>62</v>
@@ -24259,10 +24251,10 @@
         <v>12</v>
       </c>
       <c r="T159" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U159" s="11" t="s">
         <v>1609</v>
-      </c>
-      <c r="U159" s="11" t="s">
-        <v>1610</v>
       </c>
       <c r="V159" s="11" t="s">
         <v>65</v>
@@ -24271,23 +24263,23 @@
         <v>41596</v>
       </c>
       <c r="X159" s="11" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Y159" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z159" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA159" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="AB159" s="15"/>
       <c r="AC159" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AD159" s="11" t="s">
         <v>1613</v>
-      </c>
-      <c r="AD159" s="11" t="s">
-        <v>1614</v>
       </c>
       <c r="AE159" s="11" t="s">
         <v>48</v>
@@ -24303,7 +24295,7 @@
       <c r="AJ159" s="15"/>
       <c r="AK159" s="15"/>
       <c r="AL159" s="14" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="AM159" s="15"/>
       <c r="AN159" s="17"/>
@@ -24319,7 +24311,7 @@
         <v>45982.422164351854</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>56</v>
@@ -24343,19 +24335,19 @@
         <v>35</v>
       </c>
       <c r="J160" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K160" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>1618</v>
       </c>
       <c r="L160" s="3">
         <v>9047441963</v>
       </c>
       <c r="M160" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="N160" s="2" t="s">
         <v>1619</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>1620</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>85</v>
@@ -24373,10 +24365,10 @@
         <v>13</v>
       </c>
       <c r="T160" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="U160" s="2" t="s">
         <v>1621</v>
-      </c>
-      <c r="U160" s="2" t="s">
-        <v>1622</v>
       </c>
       <c r="V160" s="2" t="s">
         <v>65</v>
@@ -24385,23 +24377,23 @@
         <v>41330</v>
       </c>
       <c r="X160" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="Y160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z160" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA160" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="AB160" s="6"/>
       <c r="AC160" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AD160" s="2" t="s">
         <v>1625</v>
-      </c>
-      <c r="AD160" s="2" t="s">
-        <v>1626</v>
       </c>
       <c r="AE160" s="2" t="s">
         <v>48</v>
@@ -24418,7 +24410,7 @@
       <c r="AK160" s="6"/>
       <c r="AL160" s="6"/>
       <c r="AM160" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AN160" s="8"/>
       <c r="AO160" s="9"/>
@@ -24433,7 +24425,7 @@
         <v>45982.430243055554</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>31</v>
@@ -24457,7 +24449,7 @@
         <v>35</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K161" s="11" t="s">
         <v>527</v>
@@ -24466,19 +24458,19 @@
         <v>8870449010</v>
       </c>
       <c r="M161" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="N161" s="11" t="s">
         <v>1630</v>
       </c>
-      <c r="N161" s="11" t="s">
+      <c r="O161" s="11" t="s">
         <v>1631</v>
-      </c>
-      <c r="O161" s="11" t="s">
-        <v>1632</v>
       </c>
       <c r="P161" s="12">
         <v>621216</v>
       </c>
       <c r="Q161" s="11" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="R161" s="11" t="s">
         <v>41</v>
@@ -24487,10 +24479,10 @@
         <v>7</v>
       </c>
       <c r="T161" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="U161" s="11" t="s">
         <v>1633</v>
-      </c>
-      <c r="U161" s="11" t="s">
-        <v>1634</v>
       </c>
       <c r="V161" s="11" t="s">
         <v>44</v>
@@ -24499,7 +24491,7 @@
         <v>44203</v>
       </c>
       <c r="X161" s="11" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="Y161" s="11" t="s">
         <v>11</v>
@@ -24512,10 +24504,10 @@
       </c>
       <c r="AB161" s="15"/>
       <c r="AC161" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AD161" s="11" t="s">
         <v>1636</v>
-      </c>
-      <c r="AD161" s="11" t="s">
-        <v>1637</v>
       </c>
       <c r="AE161" s="11" t="s">
         <v>48</v>
@@ -24545,7 +24537,7 @@
         <v>45982.431990740741</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>31</v>
@@ -24569,19 +24561,19 @@
         <v>35</v>
       </c>
       <c r="J162" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="K162" s="2" t="s">
         <v>1639</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>1640</v>
       </c>
       <c r="L162" s="3">
         <v>9739277039</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>40</v>
@@ -24599,10 +24591,10 @@
         <v>4</v>
       </c>
       <c r="T162" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="U162" s="2" t="s">
         <v>1642</v>
-      </c>
-      <c r="U162" s="2" t="s">
-        <v>1643</v>
       </c>
       <c r="V162" s="2" t="s">
         <v>44</v>
@@ -24620,14 +24612,14 @@
         <v>633</v>
       </c>
       <c r="AA162" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="AB162" s="6"/>
       <c r="AC162" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AD162" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="AD162" s="2" t="s">
-        <v>1646</v>
       </c>
       <c r="AE162" s="2" t="s">
         <v>48</v>
@@ -24657,7 +24649,7 @@
         <v>45982.458055555559</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>56</v>
@@ -24681,7 +24673,7 @@
         <v>35</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="K163" s="11" t="s">
         <v>206</v>
@@ -24690,13 +24682,13 @@
         <v>9677433895</v>
       </c>
       <c r="M163" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="N163" s="11" t="s">
         <v>1649</v>
       </c>
-      <c r="N163" s="11" t="s">
+      <c r="O163" s="11" t="s">
         <v>1650</v>
-      </c>
-      <c r="O163" s="11" t="s">
-        <v>1651</v>
       </c>
       <c r="P163" s="12">
         <v>614602</v>
@@ -24711,10 +24703,10 @@
         <v>2</v>
       </c>
       <c r="T163" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="U163" s="11" t="s">
         <v>1652</v>
-      </c>
-      <c r="U163" s="11" t="s">
-        <v>1653</v>
       </c>
       <c r="V163" s="11" t="s">
         <v>44</v>
@@ -24723,7 +24715,7 @@
         <v>45607</v>
       </c>
       <c r="X163" s="11" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="Y163" s="11" t="s">
         <v>11</v>
@@ -24732,14 +24724,14 @@
         <v>633</v>
       </c>
       <c r="AA163" s="11" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="AB163" s="15"/>
       <c r="AC163" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AD163" s="11" t="s">
         <v>1656</v>
-      </c>
-      <c r="AD163" s="11" t="s">
-        <v>1657</v>
       </c>
       <c r="AE163" s="11" t="s">
         <v>48</v>
@@ -24769,7 +24761,7 @@
         <v>45982.495347222219</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>56</v>
@@ -24793,7 +24785,7 @@
         <v>35</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>183</v>
@@ -24802,10 +24794,10 @@
         <v>9790628434</v>
       </c>
       <c r="M164" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N164" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="N164" s="2" t="s">
-        <v>1661</v>
       </c>
       <c r="O164" s="2" t="s">
         <v>40</v>
@@ -24823,7 +24815,7 @@
         <v>5</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="U164" s="2" t="s">
         <v>188</v>
@@ -24835,20 +24827,20 @@
         <v>45362</v>
       </c>
       <c r="X164" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Y164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z164" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA164" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="AB164" s="6"/>
       <c r="AC164" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="AD164" s="6"/>
       <c r="AE164" s="2" t="s">
@@ -24879,7 +24871,7 @@
         <v>45982.528078703705</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>31</v>
@@ -24903,28 +24895,28 @@
         <v>35</v>
       </c>
       <c r="J165" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K165" s="11" t="s">
         <v>1667</v>
-      </c>
-      <c r="K165" s="11" t="s">
-        <v>1668</v>
       </c>
       <c r="L165" s="12">
         <v>9899936858</v>
       </c>
       <c r="M165" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="N165" s="11" t="s">
         <v>1669</v>
       </c>
-      <c r="N165" s="11" t="s">
+      <c r="O165" s="11" t="s">
         <v>1670</v>
-      </c>
-      <c r="O165" s="11" t="s">
-        <v>1671</v>
       </c>
       <c r="P165" s="12">
         <v>600014</v>
       </c>
       <c r="Q165" s="11" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="R165" s="11" t="s">
         <v>194</v>
@@ -24933,10 +24925,10 @@
         <v>4</v>
       </c>
       <c r="T165" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="U165" s="11" t="s">
         <v>1672</v>
-      </c>
-      <c r="U165" s="11" t="s">
-        <v>1673</v>
       </c>
       <c r="V165" s="11" t="s">
         <v>65</v>
@@ -24945,16 +24937,16 @@
         <v>45813</v>
       </c>
       <c r="X165" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="Y165" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z165" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA165" s="11" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="AB165" s="15"/>
       <c r="AC165" s="11" t="s">
@@ -24989,7 +24981,7 @@
         <v>45982.531574074077</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>31</v>
@@ -25013,7 +25005,7 @@
         <v>35</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>59</v>
@@ -25022,19 +25014,19 @@
         <v>9944762009</v>
       </c>
       <c r="M166" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N166" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="O166" s="2" t="s">
         <v>1679</v>
-      </c>
-      <c r="O166" s="2" t="s">
-        <v>1680</v>
       </c>
       <c r="P166" s="3">
         <v>630001</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="R166" s="2" t="s">
         <v>41</v>
@@ -25046,7 +25038,7 @@
         <v>9944762009</v>
       </c>
       <c r="U166" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="V166" s="2" t="s">
         <v>44</v>
@@ -25055,7 +25047,7 @@
         <v>44726</v>
       </c>
       <c r="X166" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="Y166" s="2" t="s">
         <v>11</v>
@@ -25064,11 +25056,11 @@
         <v>483</v>
       </c>
       <c r="AA166" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="AB166" s="6"/>
       <c r="AC166" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="AD166" s="6"/>
       <c r="AE166" s="2" t="s">
@@ -25099,7 +25091,7 @@
         <v>45982.542037037034</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>31</v>
@@ -25123,7 +25115,7 @@
         <v>35</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="K167" s="11" t="s">
         <v>59</v>
@@ -25132,19 +25124,19 @@
         <v>9626913491</v>
       </c>
       <c r="M167" s="11" t="s">
+        <v>1687</v>
+      </c>
+      <c r="N167" s="11" t="s">
         <v>1688</v>
       </c>
-      <c r="N167" s="11" t="s">
+      <c r="O167" s="11" t="s">
         <v>1689</v>
-      </c>
-      <c r="O167" s="11" t="s">
-        <v>1690</v>
       </c>
       <c r="P167" s="12">
         <v>606205</v>
       </c>
       <c r="Q167" s="11" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="R167" s="11" t="s">
         <v>137</v>
@@ -25153,10 +25145,10 @@
         <v>6</v>
       </c>
       <c r="T167" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="U167" s="11" t="s">
         <v>1691</v>
-      </c>
-      <c r="U167" s="11" t="s">
-        <v>1692</v>
       </c>
       <c r="V167" s="11" t="s">
         <v>65</v>
@@ -25165,20 +25157,20 @@
         <v>45210</v>
       </c>
       <c r="X167" s="11" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="Y167" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z167" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA167" s="11" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="AB167" s="15"/>
       <c r="AC167" s="11" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AD167" s="15"/>
       <c r="AE167" s="11" t="s">
@@ -25209,7 +25201,7 @@
         <v>45982.548090277778</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>56</v>
@@ -25233,19 +25225,19 @@
         <v>35</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L168" s="3">
         <v>8870946952</v>
       </c>
       <c r="M168" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="N168" s="2" t="s">
         <v>1698</v>
-      </c>
-      <c r="N168" s="2" t="s">
-        <v>1699</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>40</v>
@@ -25263,10 +25255,10 @@
         <v>8</v>
       </c>
       <c r="T168" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V168" s="2" t="s">
         <v>44</v>
@@ -25275,23 +25267,23 @@
         <v>44288</v>
       </c>
       <c r="X168" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="Y168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z168" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA168" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="AB168" s="6"/>
       <c r="AC168" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AD168" s="2" t="s">
         <v>1703</v>
-      </c>
-      <c r="AD168" s="2" t="s">
-        <v>1704</v>
       </c>
       <c r="AE168" s="2" t="s">
         <v>48</v>
@@ -25321,7 +25313,7 @@
         <v>45982.551319444443</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>56</v>
@@ -25345,7 +25337,7 @@
         <v>35</v>
       </c>
       <c r="J169" s="14" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K169" s="11" t="s">
         <v>59</v>
@@ -25354,19 +25346,19 @@
         <v>9443357653</v>
       </c>
       <c r="M169" s="11" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N169" s="11" t="s">
         <v>1707</v>
       </c>
-      <c r="N169" s="11" t="s">
-        <v>1708</v>
-      </c>
       <c r="O169" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P169" s="12">
         <v>620005</v>
       </c>
       <c r="Q169" s="11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="R169" s="11" t="s">
         <v>104</v>
@@ -25375,10 +25367,10 @@
         <v>10</v>
       </c>
       <c r="T169" s="11" t="s">
+        <v>1708</v>
+      </c>
+      <c r="U169" s="11" t="s">
         <v>1709</v>
-      </c>
-      <c r="U169" s="11" t="s">
-        <v>1710</v>
       </c>
       <c r="V169" s="11" t="s">
         <v>44</v>
@@ -25387,23 +25379,23 @@
         <v>42109</v>
       </c>
       <c r="X169" s="11" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="Y169" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z169" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA169" s="11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="AB169" s="15"/>
       <c r="AC169" s="11" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AD169" s="11" t="s">
         <v>1713</v>
-      </c>
-      <c r="AD169" s="11" t="s">
-        <v>1714</v>
       </c>
       <c r="AE169" s="11" t="s">
         <v>48</v>
@@ -25419,7 +25411,7 @@
       <c r="AJ169" s="15"/>
       <c r="AK169" s="15"/>
       <c r="AL169" s="14" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="AM169" s="15"/>
       <c r="AN169" s="17"/>
@@ -25435,7 +25427,7 @@
         <v>45982.616423611114</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>56</v>
@@ -25459,7 +25451,7 @@
         <v>35</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>206</v>
@@ -25468,10 +25460,10 @@
         <v>8989879619</v>
       </c>
       <c r="M170" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="N170" s="2" t="s">
         <v>1718</v>
-      </c>
-      <c r="N170" s="2" t="s">
-        <v>1719</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>40</v>
@@ -25489,10 +25481,10 @@
         <v>1</v>
       </c>
       <c r="T170" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="U170" s="2" t="s">
         <v>1720</v>
-      </c>
-      <c r="U170" s="2" t="s">
-        <v>1721</v>
       </c>
       <c r="V170" s="2" t="s">
         <v>65</v>
@@ -25501,23 +25493,23 @@
         <v>45792</v>
       </c>
       <c r="X170" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="Y170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z170" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA170" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AB170" s="6"/>
       <c r="AC170" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AD170" s="2" t="s">
         <v>1724</v>
-      </c>
-      <c r="AD170" s="2" t="s">
-        <v>1725</v>
       </c>
       <c r="AE170" s="2" t="s">
         <v>48</v>
@@ -25547,7 +25539,7 @@
         <v>45982.621087962965</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>56</v>
@@ -25571,28 +25563,28 @@
         <v>35</v>
       </c>
       <c r="J171" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K171" s="11" t="s">
         <v>1727</v>
-      </c>
-      <c r="K171" s="11" t="s">
-        <v>1728</v>
       </c>
       <c r="L171" s="12">
         <v>8113090090</v>
       </c>
       <c r="M171" s="11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="N171" s="11" t="s">
         <v>1729</v>
       </c>
-      <c r="N171" s="11" t="s">
+      <c r="O171" s="11" t="s">
         <v>1730</v>
-      </c>
-      <c r="O171" s="11" t="s">
-        <v>1731</v>
       </c>
       <c r="P171" s="12">
         <v>682025</v>
       </c>
       <c r="Q171" s="11" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="R171" s="11" t="s">
         <v>421</v>
@@ -25601,10 +25593,10 @@
         <v>1</v>
       </c>
       <c r="T171" s="11" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="U171" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V171" s="11" t="s">
         <v>65</v>
@@ -25613,20 +25605,20 @@
         <v>45806</v>
       </c>
       <c r="X171" s="11" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="Y171" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z171" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA171" s="11" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AB171" s="15"/>
       <c r="AC171" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="AD171" s="15"/>
       <c r="AE171" s="11" t="s">
@@ -25657,7 +25649,7 @@
         <v>45982.628761574073</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>31</v>
@@ -25669,7 +25661,7 @@
         <v>32465</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>1039</v>
@@ -25681,7 +25673,7 @@
         <v>35</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>591</v>
@@ -25690,19 +25682,19 @@
         <v>9786497001</v>
       </c>
       <c r="M172" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="N172" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="N172" s="2" t="s">
+      <c r="O172" s="2" t="s">
         <v>1741</v>
-      </c>
-      <c r="O172" s="2" t="s">
-        <v>1742</v>
       </c>
       <c r="P172" s="3">
         <v>622005</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="R172" s="2" t="s">
         <v>86</v>
@@ -25711,10 +25703,10 @@
         <v>10</v>
       </c>
       <c r="T172" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="U172" s="2" t="s">
         <v>1743</v>
-      </c>
-      <c r="U172" s="2" t="s">
-        <v>1744</v>
       </c>
       <c r="V172" s="2" t="s">
         <v>44</v>
@@ -25723,20 +25715,20 @@
         <v>42130</v>
       </c>
       <c r="X172" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="Y172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z172" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA172" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="AB172" s="6"/>
       <c r="AC172" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AD172" s="6"/>
       <c r="AE172" s="2" t="s">
@@ -25754,10 +25746,10 @@
       <c r="AK172" s="6"/>
       <c r="AL172" s="6"/>
       <c r="AM172" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AN172" s="18" t="s">
         <v>1748</v>
-      </c>
-      <c r="AN172" s="18" t="s">
-        <v>1749</v>
       </c>
       <c r="AO172" s="9"/>
       <c r="AP172" s="9"/>
@@ -25771,7 +25763,7 @@
         <v>45982.656342592592</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>31</v>
@@ -25795,7 +25787,7 @@
         <v>35</v>
       </c>
       <c r="J173" s="14" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="K173" s="11" t="s">
         <v>59</v>
@@ -25804,10 +25796,10 @@
         <v>9626085208</v>
       </c>
       <c r="M173" s="11" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N173" s="11" t="s">
         <v>1752</v>
-      </c>
-      <c r="N173" s="11" t="s">
-        <v>1753</v>
       </c>
       <c r="O173" s="11" t="s">
         <v>85</v>
@@ -25825,10 +25817,10 @@
         <v>1</v>
       </c>
       <c r="T173" s="11" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="U173" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V173" s="11" t="s">
         <v>65</v>
@@ -25837,23 +25829,23 @@
         <v>45681</v>
       </c>
       <c r="X173" s="11" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="Y173" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z173" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA173" s="11" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="AB173" s="15"/>
       <c r="AC173" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AD173" s="11" t="s">
         <v>1756</v>
-      </c>
-      <c r="AD173" s="11" t="s">
-        <v>1757</v>
       </c>
       <c r="AE173" s="11" t="s">
         <v>48</v>
@@ -25883,7 +25875,7 @@
         <v>45983.417222222219</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>56</v>
@@ -25907,7 +25899,7 @@
         <v>35</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>59</v>
@@ -25916,10 +25908,10 @@
         <v>8508553311</v>
       </c>
       <c r="M174" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="N174" s="2" t="s">
         <v>1760</v>
-      </c>
-      <c r="N174" s="2" t="s">
-        <v>1761</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>40</v>
@@ -25937,7 +25929,7 @@
         <v>1</v>
       </c>
       <c r="T174" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="U174" s="2" t="s">
         <v>188</v>
@@ -25949,23 +25941,23 @@
         <v>45748</v>
       </c>
       <c r="X174" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Y174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z174" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA174" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="AB174" s="6"/>
       <c r="AC174" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AD174" s="2" t="s">
         <v>1765</v>
-      </c>
-      <c r="AD174" s="2" t="s">
-        <v>1766</v>
       </c>
       <c r="AE174" s="2" t="s">
         <v>48</v>
@@ -25995,7 +25987,7 @@
         <v>45983.460949074077</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>31</v>
@@ -26019,7 +26011,7 @@
         <v>35</v>
       </c>
       <c r="J175" s="14" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K175" s="11" t="s">
         <v>59</v>
@@ -26028,10 +26020,10 @@
         <v>9600733744</v>
       </c>
       <c r="M175" s="11" t="s">
+        <v>1768</v>
+      </c>
+      <c r="N175" s="11" t="s">
         <v>1769</v>
-      </c>
-      <c r="N175" s="11" t="s">
-        <v>1770</v>
       </c>
       <c r="O175" s="11" t="s">
         <v>40</v>
@@ -26049,10 +26041,10 @@
         <v>8</v>
       </c>
       <c r="T175" s="11" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="U175" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="V175" s="11" t="s">
         <v>44</v>
@@ -26061,20 +26053,20 @@
         <v>44214</v>
       </c>
       <c r="X175" s="11" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="Y175" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z175" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA175" s="11" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AB175" s="15"/>
       <c r="AC175" s="11" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AD175" s="15"/>
       <c r="AE175" s="11" t="s">
@@ -26105,7 +26097,7 @@
         <v>45983.51185185185</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>31</v>
@@ -26129,7 +26121,7 @@
         <v>35</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>206</v>
@@ -26138,10 +26130,10 @@
         <v>9943155175</v>
       </c>
       <c r="M176" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="N176" s="2" t="s">
         <v>1777</v>
-      </c>
-      <c r="N176" s="2" t="s">
-        <v>1778</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>442</v>
@@ -26171,7 +26163,7 @@
         <v>45182</v>
       </c>
       <c r="X176" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="Y176" s="2" t="s">
         <v>11</v>
@@ -26180,7 +26172,7 @@
         <v>633</v>
       </c>
       <c r="AA176" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AB176" s="6"/>
       <c r="AC176" s="2" t="s">
@@ -26215,7 +26207,7 @@
         <v>45983.530474537038</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>31</v>
@@ -26239,7 +26231,7 @@
         <v>35</v>
       </c>
       <c r="J177" s="14" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K177" s="11" t="s">
         <v>59</v>
@@ -26248,19 +26240,19 @@
         <v>8072572223</v>
       </c>
       <c r="M177" s="11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="N177" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="N177" s="11" t="s">
+      <c r="O177" s="11" t="s">
         <v>1784</v>
-      </c>
-      <c r="O177" s="11" t="s">
-        <v>1785</v>
       </c>
       <c r="P177" s="12">
         <v>622001</v>
       </c>
       <c r="Q177" s="11" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="R177" s="11" t="s">
         <v>104</v>
@@ -26269,10 +26261,10 @@
         <v>1</v>
       </c>
       <c r="T177" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="U177" s="11" t="s">
         <v>1786</v>
-      </c>
-      <c r="U177" s="11" t="s">
-        <v>1787</v>
       </c>
       <c r="V177" s="11" t="s">
         <v>44</v>
@@ -26281,7 +26273,7 @@
         <v>45975</v>
       </c>
       <c r="X177" s="11" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="Y177" s="11" t="s">
         <v>11</v>
@@ -26290,13 +26282,13 @@
         <v>633</v>
       </c>
       <c r="AA177" s="11" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AB177" s="14" t="s">
         <v>1789</v>
       </c>
-      <c r="AB177" s="14" t="s">
+      <c r="AC177" s="11" t="s">
         <v>1790</v>
-      </c>
-      <c r="AC177" s="11" t="s">
-        <v>1791</v>
       </c>
       <c r="AD177" s="15"/>
       <c r="AE177" s="11" t="s">
@@ -26313,13 +26305,13 @@
       <c r="AJ177" s="15"/>
       <c r="AK177" s="15"/>
       <c r="AL177" s="14" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AM177" s="14" t="s">
+        <v>1791</v>
+      </c>
+      <c r="AN177" s="19" t="s">
         <v>1792</v>
-      </c>
-      <c r="AN177" s="19" t="s">
-        <v>1793</v>
       </c>
       <c r="AO177" s="9"/>
       <c r="AP177" s="9"/>
@@ -26333,7 +26325,7 @@
         <v>45983.538344907407</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>56</v>
@@ -26345,7 +26337,7 @@
         <v>32837</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>50</v>
@@ -26357,7 +26349,7 @@
         <v>35</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>59</v>
@@ -26366,10 +26358,10 @@
         <v>9894437226</v>
       </c>
       <c r="M178" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N178" s="2" t="s">
         <v>1797</v>
-      </c>
-      <c r="N178" s="2" t="s">
-        <v>1798</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>40</v>
@@ -26387,10 +26379,10 @@
         <v>3</v>
       </c>
       <c r="T178" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="U178" s="2" t="s">
         <v>1799</v>
-      </c>
-      <c r="U178" s="2" t="s">
-        <v>1800</v>
       </c>
       <c r="V178" s="2" t="s">
         <v>65</v>
@@ -26399,20 +26391,20 @@
         <v>44963</v>
       </c>
       <c r="X178" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="Y178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z178" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AA178" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="AA178" s="2" t="s">
-        <v>1803</v>
       </c>
       <c r="AB178" s="6"/>
       <c r="AC178" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AD178" s="6"/>
       <c r="AE178" s="2" t="s">
@@ -26443,7 +26435,7 @@
         <v>45983.560393518521</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>31</v>
@@ -26467,7 +26459,7 @@
         <v>35</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K179" s="11" t="s">
         <v>59</v>
@@ -26476,10 +26468,10 @@
         <v>8072806898</v>
       </c>
       <c r="M179" s="11" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N179" s="11" t="s">
         <v>1807</v>
-      </c>
-      <c r="N179" s="11" t="s">
-        <v>1808</v>
       </c>
       <c r="O179" s="11" t="s">
         <v>40</v>
@@ -26494,13 +26486,13 @@
         <v>41</v>
       </c>
       <c r="S179" s="11" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="T179" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="U179" s="11" t="s">
         <v>1809</v>
-      </c>
-      <c r="U179" s="11" t="s">
-        <v>1810</v>
       </c>
       <c r="V179" s="11" t="s">
         <v>65</v>
@@ -26509,7 +26501,7 @@
         <v>45974</v>
       </c>
       <c r="X179" s="11" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="Y179" s="11" t="s">
         <v>11</v>
@@ -26518,11 +26510,11 @@
         <v>633</v>
       </c>
       <c r="AA179" s="11" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AB179" s="15"/>
       <c r="AC179" s="11" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AD179" s="15"/>
       <c r="AE179" s="11" t="s">
@@ -26553,7 +26545,7 @@
         <v>45983.568020833336</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>31</v>
@@ -26577,7 +26569,7 @@
         <v>35</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>59</v>
@@ -26586,19 +26578,19 @@
         <v>9486885993</v>
       </c>
       <c r="M180" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N180" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="N180" s="2" t="s">
+      <c r="O180" s="2" t="s">
         <v>1817</v>
-      </c>
-      <c r="O180" s="2" t="s">
-        <v>1818</v>
       </c>
       <c r="P180" s="3">
         <v>605006</v>
       </c>
       <c r="Q180" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="R180" s="2" t="s">
         <v>86</v>
@@ -26607,10 +26599,10 @@
         <v>2</v>
       </c>
       <c r="T180" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="U180" s="2" t="s">
         <v>1819</v>
-      </c>
-      <c r="U180" s="2" t="s">
-        <v>1820</v>
       </c>
       <c r="V180" s="2" t="s">
         <v>112</v>
@@ -26619,7 +26611,7 @@
         <v>45369</v>
       </c>
       <c r="X180" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="Y180" s="2" t="s">
         <v>11</v>
@@ -26628,11 +26620,11 @@
         <v>633</v>
       </c>
       <c r="AA180" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AB180" s="6"/>
       <c r="AC180" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AD180" s="6"/>
       <c r="AE180" s="2" t="s">
@@ -26663,7 +26655,7 @@
         <v>45983.578020833331</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>31</v>
@@ -26687,7 +26679,7 @@
         <v>35</v>
       </c>
       <c r="J181" s="14" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="K181" s="11" t="s">
         <v>499</v>
@@ -26696,10 +26688,10 @@
         <v>9500390155</v>
       </c>
       <c r="M181" s="11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="N181" s="11" t="s">
         <v>1826</v>
-      </c>
-      <c r="N181" s="11" t="s">
-        <v>1827</v>
       </c>
       <c r="O181" s="11" t="s">
         <v>186</v>
@@ -26720,7 +26712,7 @@
         <v>9500390155</v>
       </c>
       <c r="U181" s="11" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="V181" s="11" t="s">
         <v>44</v>
@@ -26729,7 +26721,7 @@
         <v>45972</v>
       </c>
       <c r="X181" s="11" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="Y181" s="11" t="s">
         <v>219</v>
@@ -26738,14 +26730,14 @@
         <v>633</v>
       </c>
       <c r="AA181" s="11" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AB181" s="15"/>
       <c r="AC181" s="11" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AD181" s="11" t="s">
         <v>1830</v>
-      </c>
-      <c r="AD181" s="11" t="s">
-        <v>1831</v>
       </c>
       <c r="AE181" s="11" t="s">
         <v>48</v>
@@ -26775,7 +26767,7 @@
         <v>45983.761250000003</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>31</v>
@@ -26799,7 +26791,7 @@
         <v>35</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>59</v>
@@ -26808,10 +26800,10 @@
         <v>8289877020</v>
       </c>
       <c r="M182" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N182" s="2" t="s">
         <v>1834</v>
-      </c>
-      <c r="N182" s="2" t="s">
-        <v>1835</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>186</v>
@@ -26829,10 +26821,10 @@
         <v>10</v>
       </c>
       <c r="T182" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="U182" s="2" t="s">
         <v>1836</v>
-      </c>
-      <c r="U182" s="2" t="s">
-        <v>1837</v>
       </c>
       <c r="V182" s="2" t="s">
         <v>44</v>
@@ -26841,7 +26833,7 @@
         <v>45532</v>
       </c>
       <c r="X182" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="Y182" s="2" t="s">
         <v>11</v>
@@ -26850,11 +26842,11 @@
         <v>852</v>
       </c>
       <c r="AA182" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AB182" s="6"/>
       <c r="AC182" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AD182" s="6"/>
       <c r="AE182" s="2" t="s">
@@ -26885,7 +26877,7 @@
         <v>45984.822141203702</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>56</v>
@@ -26909,7 +26901,7 @@
         <v>35</v>
       </c>
       <c r="J183" s="14" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="K183" s="11" t="s">
         <v>59</v>
@@ -26918,10 +26910,10 @@
         <v>8807502994</v>
       </c>
       <c r="M183" s="11" t="s">
+        <v>1841</v>
+      </c>
+      <c r="N183" s="11" t="s">
         <v>1842</v>
-      </c>
-      <c r="N183" s="11" t="s">
-        <v>1843</v>
       </c>
       <c r="O183" s="11" t="s">
         <v>40</v>
@@ -26939,10 +26931,10 @@
         <v>4</v>
       </c>
       <c r="T183" s="11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="U183" s="11" t="s">
         <v>1844</v>
-      </c>
-      <c r="U183" s="11" t="s">
-        <v>1845</v>
       </c>
       <c r="V183" s="11" t="s">
         <v>112</v>
@@ -26951,20 +26943,20 @@
         <v>45873</v>
       </c>
       <c r="X183" s="11" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="Y183" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z183" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AA183" s="11" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="AB183" s="15"/>
       <c r="AC183" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="AD183" s="15"/>
       <c r="AE183" s="11" t="s">
@@ -26995,7 +26987,7 @@
         <v>45985.483148148145</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>31</v>
@@ -27019,7 +27011,7 @@
         <v>35</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>206</v>
@@ -27028,10 +27020,10 @@
         <v>9976551564</v>
       </c>
       <c r="M184" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N184" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>1852</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>40</v>
@@ -27049,7 +27041,7 @@
         <v>14</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="U184" s="2" t="s">
         <v>1000</v>
@@ -27061,7 +27053,7 @@
         <v>42157</v>
       </c>
       <c r="X184" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="Y184" s="2" t="s">
         <v>11</v>
@@ -27070,7 +27062,7 @@
         <v>467</v>
       </c>
       <c r="AA184" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AB184" s="6"/>
       <c r="AC184" s="2" t="s">
@@ -27105,7 +27097,7 @@
         <v>45985.525810185187</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>56</v>
@@ -27129,7 +27121,7 @@
         <v>35</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="K185" s="11" t="s">
         <v>59</v>
@@ -27138,10 +27130,10 @@
         <v>9677382960</v>
       </c>
       <c r="M185" s="11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="N185" s="11" t="s">
         <v>1858</v>
-      </c>
-      <c r="N185" s="11" t="s">
-        <v>1859</v>
       </c>
       <c r="O185" s="11" t="s">
         <v>40</v>
@@ -27162,7 +27154,7 @@
         <v>9677382960</v>
       </c>
       <c r="U185" s="11" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="V185" s="11" t="s">
         <v>112</v>
@@ -27171,20 +27163,20 @@
         <v>45749</v>
       </c>
       <c r="X185" s="11" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="Y185" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z185" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AA185" s="11" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="AB185" s="15"/>
       <c r="AC185" s="11" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AD185" s="15"/>
       <c r="AE185" s="11" t="s">
@@ -27215,7 +27207,7 @@
         <v>45985.53052083333</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>56</v>
@@ -27239,7 +27231,7 @@
         <v>35</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>59</v>
@@ -27248,10 +27240,10 @@
         <v>9344675106</v>
       </c>
       <c r="M186" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N186" s="2" t="s">
         <v>1866</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>1867</v>
       </c>
       <c r="O186" s="2" t="s">
         <v>40</v>
@@ -27272,7 +27264,7 @@
         <v>100596</v>
       </c>
       <c r="U186" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="V186" s="2" t="s">
         <v>112</v>
@@ -27281,7 +27273,7 @@
         <v>41502</v>
       </c>
       <c r="X186" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="Y186" s="2" t="s">
         <v>11</v>
@@ -27294,7 +27286,7 @@
       </c>
       <c r="AB186" s="6"/>
       <c r="AC186" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="AD186" s="6"/>
       <c r="AE186" s="2" t="s">
@@ -27325,7 +27317,7 @@
         <v>45985.622858796298</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>31</v>
@@ -27337,7 +27329,7 @@
         <v>31670</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G187" s="11" t="s">
         <v>33</v>
@@ -27349,7 +27341,7 @@
         <v>35</v>
       </c>
       <c r="J187" s="14" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="K187" s="11" t="s">
         <v>59</v>
@@ -27358,19 +27350,19 @@
         <v>8089177160</v>
       </c>
       <c r="M187" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N187" s="11" t="s">
         <v>1872</v>
       </c>
-      <c r="N187" s="11" t="s">
+      <c r="O187" s="11" t="s">
         <v>1873</v>
-      </c>
-      <c r="O187" s="11" t="s">
-        <v>1874</v>
       </c>
       <c r="P187" s="12">
         <v>629001</v>
       </c>
       <c r="Q187" s="11" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="R187" s="11" t="s">
         <v>41</v>
@@ -27382,7 +27374,7 @@
         <v>8110097160</v>
       </c>
       <c r="U187" s="11" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="V187" s="11" t="s">
         <v>65</v>
@@ -27391,23 +27383,23 @@
         <v>44372</v>
       </c>
       <c r="X187" s="11" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="Y187" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Z187" s="11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AA187" s="11" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="AB187" s="15"/>
       <c r="AC187" s="11" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AD187" s="11" t="s">
         <v>1879</v>
-      </c>
-      <c r="AD187" s="11" t="s">
-        <v>1880</v>
       </c>
       <c r="AE187" s="11" t="s">
         <v>48</v>
@@ -27437,7 +27429,7 @@
         <v>45985.623449074075</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>31</v>
@@ -27461,19 +27453,19 @@
         <v>35</v>
       </c>
       <c r="J188" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K188" s="2" t="s">
         <v>1882</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>1883</v>
       </c>
       <c r="L188" s="3">
         <v>9492092407</v>
       </c>
       <c r="M188" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="N188" s="2" t="s">
         <v>1884</v>
-      </c>
-      <c r="N188" s="2" t="s">
-        <v>1885</v>
       </c>
       <c r="O188" s="2" t="s">
         <v>40</v>
@@ -27491,10 +27483,10 @@
         <v>3</v>
       </c>
       <c r="T188" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="U188" s="2" t="s">
         <v>1886</v>
-      </c>
-      <c r="U188" s="2" t="s">
-        <v>1887</v>
       </c>
       <c r="V188" s="2" t="s">
         <v>44</v>
@@ -27503,20 +27495,20 @@
         <v>45474</v>
       </c>
       <c r="X188" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="Y188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Z188" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AA188" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="AB188" s="6"/>
       <c r="AC188" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="AD188" s="6"/>
       <c r="AE188" s="2" t="s">
@@ -27547,7 +27539,7 @@
         <v>45986.487766203703</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C189" s="27" t="s">
         <v>56</v>
@@ -27571,7 +27563,7 @@
         <v>35</v>
       </c>
       <c r="J189" s="30" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="K189" s="27" t="s">
         <v>59</v>
@@ -27580,19 +27572,19 @@
         <v>9500293493</v>
       </c>
       <c r="M189" s="27" t="s">
+        <v>1892</v>
+      </c>
+      <c r="N189" s="27" t="s">
         <v>1893</v>
       </c>
-      <c r="N189" s="27" t="s">
-        <v>1894</v>
-      </c>
       <c r="O189" s="27" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="P189" s="28">
         <v>629502</v>
       </c>
       <c r="Q189" s="27" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="R189" s="27" t="s">
         <v>41</v>
@@ -27601,10 +27593,10 @@
         <v>2</v>
       </c>
       <c r="T189" s="27" t="s">
+        <v>1894</v>
+      </c>
+      <c r="U189" s="27" t="s">
         <v>1895</v>
-      </c>
-      <c r="U189" s="27" t="s">
-        <v>1896</v>
       </c>
       <c r="V189" s="27" t="s">
         <v>65</v>
@@ -27613,20 +27605,20 @@
         <v>45981</v>
       </c>
       <c r="X189" s="27" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="Y189" s="27" t="s">
         <v>11</v>
       </c>
       <c r="Z189" s="27" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AA189" s="27" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="AB189" s="31"/>
       <c r="AC189" s="27" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="AD189" s="31"/>
       <c r="AE189" s="27" t="s">
